--- a/public/templates/excel-example.xlsx
+++ b/public/templates/excel-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5011600\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB98D3F-1DCE-4512-A445-D62EB69B81BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95309AD-5DD9-41C2-8144-EE2B6792658D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="265">
   <si>
     <t>NO</t>
   </si>
@@ -839,6 +839,9 @@
   </si>
   <si>
     <t>jhruska@sony.com</t>
+  </si>
+  <si>
+    <t>Brusiaren</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +2245,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2359,7 +2362,7 @@
         <v>260</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="I2" s="4">
         <v>45923</v>
